--- a/Requirement_Matrix.xlsx
+++ b/Requirement_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uni\4.Semester\Se 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3649EB-D2CF-48F4-B80F-1C8538672E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{380855D0-C0D8-42A7-AA07-57DE87E276C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{33F4DA2C-A3E3-4FB0-B017-DDD34A44F645}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
   <si>
     <t>FA-01</t>
   </si>
@@ -86,9 +86,6 @@
     <t>FA-13</t>
   </si>
   <si>
-    <t>FA-14</t>
-  </si>
-  <si>
     <t>FA-03 Studentenprofil bearbeiten</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>FA-12 Fehlerbehandlung/Stabilität</t>
   </si>
   <si>
-    <t>FA-13 DSGVO/Datenschutz</t>
-  </si>
-  <si>
     <t>FA-14 Frühes Testen</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
   </si>
   <si>
     <t>Fehlerbehandlung/Stabilität</t>
-  </si>
-  <si>
-    <t>DSGVO/Datenschutz</t>
   </si>
   <si>
     <t>Frühes Testen</t>
@@ -562,15 +553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2809A884-4631-4A8D-8093-19BEAA091146}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="59" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="45" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -611,11 +602,9 @@
       <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -637,12 +626,12 @@
         <v>7</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -666,14 +655,14 @@
         <v>7</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="N3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -695,14 +684,14 @@
         <v>7</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="N4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -724,14 +713,14 @@
         <v>7</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="N5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -753,14 +742,14 @@
         <v>7</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="N6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -788,14 +777,14 @@
         <v>7</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -819,14 +808,14 @@
         <v>7</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="N8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -858,14 +847,14 @@
         <v>7</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -895,14 +884,14 @@
         <v>7</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -921,9 +910,9 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -944,9 +933,9 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -969,9 +958,9 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -988,16 +977,19 @@
       <c r="L14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="N14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1007,21 +999,13 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.35">
@@ -1032,10 +1016,10 @@
     </row>
     <row r="21" spans="5:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="5:6" ht="29" x14ac:dyDescent="0.35">
@@ -1043,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="5:6" ht="29" x14ac:dyDescent="0.35">
@@ -1051,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="5:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1059,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="5:6" ht="58" x14ac:dyDescent="0.35">
@@ -1067,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="5:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1075,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="5:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1083,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="5:6" ht="29" x14ac:dyDescent="0.35">
@@ -1091,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.35">
@@ -1099,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="5:6" ht="29" x14ac:dyDescent="0.35">
@@ -1107,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="5:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1115,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="5:6" ht="29" x14ac:dyDescent="0.35">
@@ -1123,7 +1107,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="5:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -1131,23 +1115,19 @@
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="E34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="5:6" ht="29" x14ac:dyDescent="0.35">
       <c r="E35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
